--- a/文件/南泵流体福州办发货通知单-测试.xlsx
+++ b/文件/南泵流体福州办发货通知单-测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="180"/>
+    <workbookView windowWidth="27952" windowHeight="12255" tabRatio="180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="82" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>杭州南泵流体机械 发货通知单      2025年11月05日订单    流体福州办20251105004</t>
   </si>
@@ -156,36 +156,6 @@
   </si>
   <si>
     <t>备注2：现货发，附送货单</t>
-  </si>
-  <si>
-    <t>山东孚诺泰环保设备有限责任公司</t>
-  </si>
-  <si>
-    <t>CDL20-17FSWPC</t>
-  </si>
-  <si>
-    <t>物流送货不发云淼/山东省/青州市/经济开发区玲珑山北路4618号（双喜工业园北100米路西）/刘子强/13105361237</t>
-  </si>
-  <si>
-    <t>ZS65-40-200/5.5SSC</t>
-  </si>
-  <si>
-    <t>备注2：附送货单</t>
-  </si>
-  <si>
-    <t>无锡双福环保设备有限公司</t>
-  </si>
-  <si>
-    <t>CHL2-30LSWLC</t>
-  </si>
-  <si>
-    <t>物流送货不发云淼/江苏省无锡市宜兴市 远东大道172号 江苏恒沁源环保科技有限公司车间周日无人收货不要送/陈志文/+86-13995960457</t>
-  </si>
-  <si>
-    <t>CHL2-40LSWLC</t>
-  </si>
-  <si>
-    <t>CDLF2-26FSWLC</t>
   </si>
 </sst>
 </file>
@@ -932,26 +902,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1312,24 +1282,24 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScalePageLayoutView="55" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScalePageLayoutView="55" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.1166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.3916666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.1083333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.0583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5583333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="47.3583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1150442477876" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3716814159292" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.3893805309735" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1061946902655" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6637168141593" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.0619469026549" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8141592920354" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6017699115044" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5575221238938" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.353982300885" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -1408,9 +1378,7 @@
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10">
-        <v>3900</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="8">
         <v>1</v>
       </c>
@@ -1421,23 +1389,21 @@
         <f t="shared" ref="H4:H6" si="0">G4*F4</f>
         <v>2441</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>1100284812</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
-        <v>3900</v>
-      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="8">
         <v>3</v>
       </c>
@@ -1448,8 +1414,8 @@
         <f t="shared" si="0"/>
         <v>5070</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="8"/>
@@ -1460,8 +1426,8 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="8"/>
@@ -1475,8 +1441,8 @@
         <f>SUM(H4:H6)</f>
         <v>7511</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="7" t="s">
@@ -1486,14 +1452,14 @@
       <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:10">
@@ -1502,352 +1468,27 @@
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9">
-        <v>110027923</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3900</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>5963</v>
-      </c>
-      <c r="H11" s="10">
-        <f>G11*F11</f>
-        <v>5963</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11">
-        <v>1100215292</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10">
-        <v>3900</v>
-      </c>
-      <c r="F12" s="8">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2950</v>
-      </c>
-      <c r="H12" s="10">
-        <f>G12*F12</f>
-        <v>5900</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10">
-        <f>SUM(H11:H13)</f>
-        <v>11863</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1100285057</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="10">
-        <v>3900</v>
-      </c>
-      <c r="F18" s="8">
-        <v>9</v>
-      </c>
-      <c r="G18" s="8">
-        <v>644</v>
-      </c>
-      <c r="H18" s="10">
-        <f>G18*F18</f>
-        <v>5796</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="11">
-        <v>1100285005</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="10">
-        <v>3900</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8">
-        <v>758</v>
-      </c>
-      <c r="H19" s="10">
-        <f>G19*F19</f>
-        <v>2274</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="11">
-        <v>1100283374</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="10">
-        <v>3900</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>2533</v>
-      </c>
-      <c r="H20" s="10">
-        <f>G20*F20</f>
-        <v>2533</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10">
-        <f>SUM(H18:H20)</f>
-        <v>10603</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:I23"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J18:J21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
